--- a/battledeck.xlsx
+++ b/battledeck.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D845DB3-37D9-4FEB-A8F7-9998A044972D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1B9393-BCBB-4038-8FEC-D0148619E7CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Control tower" sheetId="1" r:id="rId1"/>
-    <sheet name="Day of doom" sheetId="2" r:id="rId2"/>
-    <sheet name="Living legends" sheetId="3" r:id="rId3"/>
-    <sheet name="cogs-of-war" sheetId="4" r:id="rId4"/>
+    <sheet name="4 card box" sheetId="8" r:id="rId1"/>
+    <sheet name="Control tower" sheetId="1" r:id="rId2"/>
+    <sheet name="Day of doom" sheetId="2" r:id="rId3"/>
+    <sheet name="goblin gang" sheetId="5" r:id="rId4"/>
+    <sheet name="cogs-of-war" sheetId="4" r:id="rId5"/>
+    <sheet name="knight time" sheetId="7" r:id="rId6"/>
+    <sheet name="zombie pauper" sheetId="6" r:id="rId7"/>
+    <sheet name="Living legends" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="304">
   <si>
     <t>Control tower</t>
   </si>
@@ -553,13 +557,400 @@
   </si>
   <si>
     <t>https://mtgspot.pl/single/single/reverse-engineer/934250</t>
+  </si>
+  <si>
+    <t>Goblin gang</t>
+  </si>
+  <si>
+    <t>https://tappedout.net/mtg-decks/01-08-19-goblin-gang/</t>
+  </si>
+  <si>
+    <t>Goblin Instigator</t>
+  </si>
+  <si>
+    <t>Goblin Matron</t>
+  </si>
+  <si>
+    <t>Goblin Ringleader</t>
+  </si>
+  <si>
+    <t>Goblin Warchief</t>
+  </si>
+  <si>
+    <t>Munitions Expert</t>
+  </si>
+  <si>
+    <t>Putrid Goblin</t>
+  </si>
+  <si>
+    <t>Skirk Prospector</t>
+  </si>
+  <si>
+    <t>Sling-Gang Lieutenant</t>
+  </si>
+  <si>
+    <t>Volley Veteran</t>
+  </si>
+  <si>
+    <t>Rakdos Guildgate</t>
+  </si>
+  <si>
+    <t>Swamp</t>
+  </si>
+  <si>
+    <t>Outnumber</t>
+  </si>
+  <si>
+    <t>Unearth</t>
+  </si>
+  <si>
+    <t>Goblin Oriflamme</t>
+  </si>
+  <si>
+    <t>https://cardstore.pl/czerwone-m19/11275-goblin-instigator.html?search_query=Goblin+Instigator&amp;results=65</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/art-series-goblin-matron/957957</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/goblin-ringleader/960022</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/goblin-warchief/1015291</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/munitions-expert/951919</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/putrid-goblin/954004</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/skirk-prospector/886831</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/sling-gang-lieutenant/952227</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/volley-veteran/927000</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/rakdos-guildgate-version-2/926653</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/outnumber/885274</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/unearth/970427</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/goblin-oriflamme/956824</t>
+  </si>
+  <si>
+    <t>Zombie pauper</t>
+  </si>
+  <si>
+    <t>https://www.mtggoldfish.com/deck/1424213#paper</t>
+  </si>
+  <si>
+    <t>Carrion Feeder</t>
+  </si>
+  <si>
+    <t>Festering Mummy</t>
+  </si>
+  <si>
+    <t>Shambling Goblin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Gnawing Zombie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Shepherd of Rot</t>
+  </si>
+  <si>
+    <t>Sultai Emissary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Ghoulraiser</t>
+  </si>
+  <si>
+    <t>Infernal Caretaker</t>
+  </si>
+  <si>
+    <t>Gray Merchant of Asphodel</t>
+  </si>
+  <si>
+    <t>Gempalm Polluter</t>
+  </si>
+  <si>
+    <t>Ghoulcaller's Chant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Tragic Slip</t>
+  </si>
+  <si>
+    <t>Cemetery Recruitment</t>
+  </si>
+  <si>
+    <t>Chainer's Edict</t>
+  </si>
+  <si>
+    <t>Geth's Verdict</t>
+  </si>
+  <si>
+    <t>Nameless Inversion</t>
+  </si>
+  <si>
+    <t>Sign in Blood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Barren Moor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Swamp</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/carrion-feeder/959213</t>
+  </si>
+  <si>
+    <t>https://cardstore.pl/czarne-akh/7207-festering-mummy.html?search_query=Festering+Mummy&amp;results=7</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/shambling-goblin/887280</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/gnawing-zombie/1035478</t>
+  </si>
+  <si>
+    <t>https://cardstore.pl/czarne-frf/1190-sultai-emissary.html?search_query=Sultai+Emissary&amp;results=22</t>
+  </si>
+  <si>
+    <t>https://cardstore.pl/duel-decks-blessed-vs-cursed/12193-ghoulraiser.html?search_query=Ghoulraiser&amp;results=1</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/infernal-caretaker/1028569</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/gray-merchant-of-asphodel/1030646</t>
+  </si>
+  <si>
+    <t>https://www.flamberg.com.pl/product_info.php?products_id=26991</t>
+  </si>
+  <si>
+    <t>https://cardstore.pl/czarne-emn/4658-cemetery-recruitment.html?search_query=Cemetery+Recruitment&amp;results=2</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/chainers-edict-/1054862</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/nameless-inversion/1016230</t>
+  </si>
+  <si>
+    <t>https://cardstore.pl/czarne-mm15/693-sign-in-blood.html?search_query=Sign+in+Blood&amp;results=104</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/barren-moor/966258</t>
+  </si>
+  <si>
+    <t>Knight Time</t>
+  </si>
+  <si>
+    <t>https://tappedout.net/mtg-decks/02-11-19-knight-time/</t>
+  </si>
+  <si>
+    <t>Burning-Yard Trainer</t>
+  </si>
+  <si>
+    <t>Dauntless Bodyguard</t>
+  </si>
+  <si>
+    <t>Inspiring Veteran</t>
+  </si>
+  <si>
+    <t>Rimrock Knight</t>
+  </si>
+  <si>
+    <t>Skyknight Legionnaire</t>
+  </si>
+  <si>
+    <t>Skyknight Vanguard</t>
+  </si>
+  <si>
+    <t>Valiant Knight</t>
+  </si>
+  <si>
+    <t>Venerable Knight</t>
+  </si>
+  <si>
+    <t>Scorching Dragonfire</t>
+  </si>
+  <si>
+    <t>Joust</t>
+  </si>
+  <si>
+    <t>Heraldic Banner</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/burning-yard-trainer/981894</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/dauntless-bodyguard/886567</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/inspiring-veteran-/1054615</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/rimrock-knight-boulder-rush/1063170</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/skyknight-legionnaire/882878</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/skyknight-vanguard/987270</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/venerable-knight/975963</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/scorching-dragonfire/1046826</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/joust/981722</t>
+  </si>
+  <si>
+    <t>https://cardstore.pl/artefakty-eld/15158-heraldic-banner.html?search_query=Heraldic+Banner&amp;results=10</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/valiant-knight-pm19-excellent-foil-9587979508</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/foundry-inspector-zmniejsza-koszt-artefaktow-7525800469</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/mtg-tomb-of-the-spirit-dragon-ktk-9107112919</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/the-antiquities-war-do-artefaktow-7360981199</t>
+  </si>
+  <si>
+    <t>ANTIQUITIES 2</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/mtg-the-antiquities-war-gamesmasters-7837016587</t>
+  </si>
+  <si>
+    <t>cards cost</t>
+  </si>
+  <si>
+    <t>DECKBOXES</t>
+  </si>
+  <si>
+    <t>goblin gang</t>
+  </si>
+  <si>
+    <t>cogs of war</t>
+  </si>
+  <si>
+    <t>https://cardstore.pl/legion/11076-legion-deckbox-kraken.html?search_query=legion+deckbox&amp;results=88</t>
+  </si>
+  <si>
+    <t>https://cardstore.pl/legion/6240-pudelko-deck-box-czarne-ultra-pro.html?search_query=legion+deckbox&amp;results=88</t>
+  </si>
+  <si>
+    <t>https://cardstore.pl/legion/6243-pudelko-deck-box-czarne-ultra-pro.html?search_query=legion+deckbox&amp;results=88</t>
+  </si>
+  <si>
+    <t>https://cardstore.pl/legion/6242-pudelko-deck-box-czarne-ultra-pro.html?search_query=legion+deckbox&amp;results=88</t>
+  </si>
+  <si>
+    <t>deckboxes</t>
+  </si>
+  <si>
+    <t>Tokens</t>
+  </si>
+  <si>
+    <t>x/x</t>
+  </si>
+  <si>
+    <t>Green ooze</t>
+  </si>
+  <si>
+    <t>Energy counters</t>
+  </si>
+  <si>
+    <t>Doom counters</t>
+  </si>
+  <si>
+    <t>red goblin token</t>
+  </si>
+  <si>
+    <t>Mishra's Self-Replicator token</t>
+  </si>
+  <si>
+    <t>Thopter token</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/ooze-token-green-/1061207</t>
+  </si>
+  <si>
+    <t>ammount</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/energy-reserve/866605</t>
+  </si>
+  <si>
+    <t>goblins</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/goblin-token-r-1-1-thopter-token-a-1-1/958100</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/goblin-token-red-1-1/964587</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/myr-token-blue-artifact-2-1/1061206</t>
+  </si>
+  <si>
+    <t>https://mtgspot.pl/single/single/thopter-token-artifact-1-1-version-2/859050</t>
+  </si>
+  <si>
+    <t>tokeny</t>
+  </si>
+  <si>
+    <t>sources 6 transport</t>
+  </si>
+  <si>
+    <t>suma</t>
+  </si>
+  <si>
+    <t>Ultra pro mate</t>
+  </si>
+  <si>
+    <t>koszulki 254</t>
+  </si>
+  <si>
+    <t>100 Dragon Shield Perfect Fit Sideloader Sleeves - Clear</t>
+  </si>
+  <si>
+    <t>()</t>
+  </si>
+  <si>
+    <t>jed z 2 zamówiony</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,6 +975,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFEDD9B4"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -606,11 +1011,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -891,11 +1299,277 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7DB961-1803-4BB7-9C6E-86366F187C27}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1">
+        <v>129.94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4">
+        <v>9.27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6" s="2">
+        <f>SUM(B1:B5)</f>
+        <v>235.21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>271</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="E10">
+        <v>0.23</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0.23</v>
+      </c>
+      <c r="E11">
+        <f>C11*D11</f>
+        <v>0.46</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:E15" si="0">C12*D12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>282</v>
+      </c>
+      <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>0.45</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>6.3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0.45</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B15" s="5">
+        <v>43831</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>0.23</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1.3800000000000001</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E16" s="2">
+        <f>SUM(E10:E15)</f>
+        <v>9.2700000000000014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H19" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H20" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>299</v>
+      </c>
+      <c r="B23">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{42F51BF3-590B-4A44-9A30-6FEEEC4079A8}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{2D659EFF-5CD4-421C-8861-90890DC131EC}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{61BC1013-CF07-483D-87FF-337D6A5BC4C1}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{BC61AD74-3DB7-4333-917F-11BAC3D98C0B}"/>
+    <hyperlink ref="F10" r:id="rId5" xr:uid="{AE9731C6-DAE7-412E-A772-2FF4555179CD}"/>
+    <hyperlink ref="F11" r:id="rId6" xr:uid="{D1D71FC9-8100-4F8B-8AE8-5A7BDD71A659}"/>
+    <hyperlink ref="A19" r:id="rId7" xr:uid="{DA1CF1E5-F8DF-4621-8667-B1D62F55B04E}"/>
+    <hyperlink ref="F14" r:id="rId8" xr:uid="{C4080DD9-3E9A-4D79-94D7-81296E2FE9DF}"/>
+    <hyperlink ref="F15" r:id="rId9" xr:uid="{FDBF0045-6E2B-4EB1-A577-90D3BBA70894}"/>
+    <hyperlink ref="A20" r:id="rId10" xr:uid="{8B1DE864-C28A-47EE-BB87-7507B1B0E131}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A2:E2"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -904,7 +1578,7 @@
     <col min="2" max="2" width="15.81640625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="91.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1389,12 +2063,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523A62B0-E81A-45B5-A602-FD23740C6B06}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1935,202 +2609,351 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3ED0BC-CA75-4865-A8F6-2B26DD7FDF27}">
-  <dimension ref="A1:E19"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D2BA91-99E0-40CD-A44C-C6EACC5457ED}">
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>0.45</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f>B5*C5</f>
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c r="B6">
         <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0.45</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D19" si="0">B6*C6</f>
+        <v>1.8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0.68</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2.72</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="B8">
         <v>2</v>
+      </c>
+      <c r="C8">
+        <v>0.9</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>0.68</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>2.72</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0.45</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1.35</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>0.45</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>184</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>125</v>
+      <c r="A13" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
+      <c r="C13">
+        <v>0.45</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>0.23</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>3.45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0.36</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>0.23</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1.61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>188</v>
       </c>
       <c r="B17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>0.32</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="B18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>0.68</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1.36</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>0.63</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1.8900000000000001</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <f>SUM(D5:D19)</f>
+        <v>27.27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{A969A18E-6774-4039-9E86-9D54861C2F24}"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{B02B041C-34C1-4CF1-9898-FF69FABDE78A}"/>
+    <hyperlink ref="A13" r:id="rId2" display="https://tappedout.net/mtg-card/volley-veteran/" xr:uid="{BE26E20C-24F8-46D3-8C6F-A81375449EF5}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{47B5F131-3CF0-417E-96C1-34A4E649FDF9}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{B41AAA77-5F00-4841-8363-DAC14AE4BF1E}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{019A51EA-06DF-45CE-AE49-35B5A60BB9D0}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{0FDC54D9-531E-4B77-A40C-2F13D953DA15}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{DB5913A5-C2DD-4150-AD18-B50F54445658}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{8B0A5BE8-B9AA-46FA-A93C-15ADADDE16E8}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{4B359FAD-2E4F-4BA8-95B5-208D36801DDD}"/>
+    <hyperlink ref="E12" r:id="rId10" xr:uid="{E6210C66-CCC1-4E8D-995F-A8FE847176AD}"/>
+    <hyperlink ref="E13" r:id="rId11" xr:uid="{17C4716E-E499-4DB1-A420-58BF3520BB52}"/>
+    <hyperlink ref="E15" r:id="rId12" xr:uid="{8530F6E7-F285-420A-A3C4-41AAC2FB16BE}"/>
+    <hyperlink ref="E17" r:id="rId13" xr:uid="{EF18E0E4-EE1F-4ADF-95E4-005EC50E1C73}"/>
+    <hyperlink ref="E18" r:id="rId14" xr:uid="{04ABE800-B561-4DA8-85D9-415BB8BD782C}"/>
+    <hyperlink ref="E19" r:id="rId15" xr:uid="{42143BC5-DE16-4C29-9AAC-B4998F5472FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3016F35F-8111-40FC-B276-8F561A9BCCA2}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2138,6 +2961,7 @@
     <col min="1" max="1" width="22.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -2175,19 +2999,30 @@
       <c r="C4">
         <v>0.36</v>
       </c>
+      <c r="D4">
+        <f>B4*C4</f>
+        <v>0.72</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>136</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>154</v>
+      <c r="C5">
+        <v>1.25</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D22" si="0">B5*C5</f>
+        <v>2.5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -2200,6 +3035,10 @@
       <c r="C6">
         <v>0.45</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>155</v>
       </c>
@@ -2214,6 +3053,10 @@
       <c r="C7">
         <v>0.45</v>
       </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>156</v>
       </c>
@@ -2228,6 +3071,10 @@
       <c r="C8">
         <v>0.59</v>
       </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1.18</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>157</v>
       </c>
@@ -2242,6 +3089,10 @@
       <c r="C9">
         <v>1.59</v>
       </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>6.36</v>
+      </c>
       <c r="E9" t="s">
         <v>36</v>
       </c>
@@ -2256,6 +3107,10 @@
       <c r="C10">
         <v>0.23</v>
       </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.23</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>164</v>
       </c>
@@ -2270,6 +3125,10 @@
       <c r="C11">
         <v>0.41</v>
       </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.82</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>165</v>
       </c>
@@ -2284,6 +3143,10 @@
       <c r="C12">
         <v>2.25</v>
       </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>36</v>
       </c>
@@ -2298,6 +3161,10 @@
       <c r="C13">
         <v>0.23</v>
       </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>2.99</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -2309,6 +3176,10 @@
       <c r="C14">
         <v>0.45</v>
       </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>168</v>
       </c>
@@ -2323,6 +3194,10 @@
       <c r="C15">
         <v>0.45</v>
       </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>169</v>
       </c>
@@ -2337,22 +3212,39 @@
       <c r="C16">
         <v>0.5</v>
       </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>147</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="L17" t="s">
+        <v>303</v>
+      </c>
+      <c r="M17" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>148</v>
       </c>
@@ -2362,22 +3254,33 @@
       <c r="C18">
         <v>1</v>
       </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
         <v>149</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
-      <c r="C19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>150</v>
       </c>
@@ -2387,11 +3290,15 @@
       <c r="C20">
         <v>0.45</v>
       </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1.35</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>151</v>
       </c>
@@ -2401,11 +3308,15 @@
       <c r="C21">
         <v>0.5</v>
       </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>152</v>
       </c>
@@ -2415,16 +3326,26 @@
       <c r="C22">
         <v>2.25</v>
       </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D23">
+        <f>SUM(D4:D22)</f>
+        <v>51.449999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>159</v>
       </c>
@@ -2432,7 +3353,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>160</v>
       </c>
@@ -2440,7 +3361,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>163</v>
       </c>
@@ -2448,19 +3369,29 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2484,6 +3415,824 @@
     <hyperlink ref="E20" r:id="rId17" xr:uid="{E000C264-F5B8-4F77-9CE7-94A30966DE8F}"/>
     <hyperlink ref="E21" r:id="rId18" xr:uid="{B57922A4-5CD7-4498-BF38-F92A8F33C6E4}"/>
     <hyperlink ref="E22" r:id="rId19" xr:uid="{72DACD80-5863-46F8-A170-40DFE4A04A3E}"/>
+    <hyperlink ref="E5" r:id="rId20" xr:uid="{937635A3-78E3-46E3-B648-39FF1633A221}"/>
+    <hyperlink ref="E17" r:id="rId21" xr:uid="{9428CFFC-EF3E-4607-9ED5-360CFC7CB56E}"/>
+    <hyperlink ref="E19" r:id="rId22" xr:uid="{68882AE2-7911-465A-86DB-2B7687D18595}"/>
+    <hyperlink ref="A36" r:id="rId23" xr:uid="{D1E1B397-2BD4-4BED-8A7E-CD989BAD0AF7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711CD484-C43A-43EE-A57A-07D77AFBF693}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.63</v>
+      </c>
+      <c r="D4">
+        <f>B4*C4</f>
+        <v>0.63</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0.45</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D17" si="0">B5*C5</f>
+        <v>1.8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0.9</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0.86</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>3.44</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0.27</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>0.45</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>8.99</v>
+      </c>
+      <c r="D10">
+        <f>C10*B10</f>
+        <v>8.99</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>0.23</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>0.23</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>0.68</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>2.72</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>0.63</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>2.52</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>0.63</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>2.52</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <f>SUM(D4:D17)</f>
+        <v>37.70000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{466ED11E-21F5-4566-9983-D0DC5D044FBB}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{AC2026BB-B634-4D2C-A4A5-75BBB9FA0ACC}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{DB5D5A78-6F37-4E34-A8D8-D5E4103B8451}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{A140D36E-06C9-4B6C-A2E3-44A00F958C2E}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{BFF604DC-EC97-4B69-9C7F-178CC8DA36ED}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{55A7F3E7-EAEA-48C8-A298-FF41104864F4}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{57763441-2181-43AC-9F3B-DB116630A10B}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{56F67663-39BB-4E7C-B997-D33580227BBE}"/>
+    <hyperlink ref="E14" r:id="rId9" xr:uid="{E06F521B-41F5-40EC-B492-59263106BB59}"/>
+    <hyperlink ref="E15" r:id="rId10" xr:uid="{482DDD61-E6FF-4DBB-9F5B-33506F3F2FCB}"/>
+    <hyperlink ref="E16" r:id="rId11" xr:uid="{57772AA7-2AFC-4B64-970A-33DA24B34613}"/>
+    <hyperlink ref="E17" r:id="rId12" xr:uid="{69E23384-E9DD-4BA2-8E23-C9FD555DF189}"/>
+    <hyperlink ref="E10" r:id="rId13" xr:uid="{7C62BF42-B287-4132-8E66-E7A6342667B0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BD3187-44C3-46A8-9467-6A2FB8E62F07}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>0.68</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0.36</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1.08</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0.45</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>6.03</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>0.45</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>0.32</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>0.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" location="paper" xr:uid="{3D082B0B-E202-4EC4-9607-FEEA0FA3C9BB}"/>
+    <hyperlink ref="A4" r:id="rId2" location="paper" display="https://www.mtggoldfish.com/price/Amonkhet/Festering+Mummy - paper" xr:uid="{3A86C7D3-AA92-40B8-8503-2CABBEE64961}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{DACEEFD7-E440-4A83-97B8-407360ABF0AD}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{D2E6823B-4210-43F2-9D58-3A2859D5410C}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{12726BC3-9BC0-4415-8836-69B193A366EE}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{66A581E2-BFEA-49C6-AAFD-4063434760AD}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{6E974D15-E2FD-4DC4-B029-4E495AD03E05}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{8545A80B-E5B9-49FD-9BD4-C3322A4222EF}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{01EBC2B4-29A7-4C32-9A1D-40624E5EFF78}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{820FD34B-69C4-449A-93A7-B8C96A55D391}"/>
+    <hyperlink ref="E14" r:id="rId11" xr:uid="{8FDE1E12-EBAE-45DE-9270-52F10AFAE8F7}"/>
+    <hyperlink ref="E15" r:id="rId12" xr:uid="{D91796E0-4E64-4D1D-9487-3A75627AAAC4}"/>
+    <hyperlink ref="E16" r:id="rId13" xr:uid="{5858C975-42C4-4292-B7B7-C28A3F4291AD}"/>
+    <hyperlink ref="E18" r:id="rId14" xr:uid="{8C8D9F59-38DB-479A-A46E-E2A7AE96DE0C}"/>
+    <hyperlink ref="E19" r:id="rId15" xr:uid="{378ADFE0-3061-4CBA-ABC0-DC11B96F346B}"/>
+    <hyperlink ref="E20" r:id="rId16" xr:uid="{C7FBEE83-58ED-41E9-BC45-4B7D3205E20B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3ED0BC-CA75-4865-A8F6-2B26DD7FDF27}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>0.45</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{A969A18E-6774-4039-9E86-9D54861C2F24}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/battledeck.xlsx
+++ b/battledeck.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1B9393-BCBB-4038-8FEC-D0148619E7CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EDBA24-E1A3-496F-9E77-8EB236826029}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4 card box" sheetId="8" r:id="rId1"/>
@@ -950,7 +950,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -989,6 +989,13 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1011,7 +1018,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1019,6 +1026,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -1306,13 +1314,13 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>268</v>
       </c>
@@ -1320,7 +1328,7 @@
         <v>129.94</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>297</v>
       </c>
@@ -1331,7 +1339,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>276</v>
       </c>
@@ -1345,7 +1353,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>296</v>
       </c>
@@ -1359,7 +1367,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>300</v>
       </c>
@@ -1370,7 +1378,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>298</v>
       </c>
@@ -1385,7 +1393,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>277</v>
       </c>
@@ -1399,7 +1407,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>279</v>
       </c>
@@ -1419,7 +1427,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>280</v>
       </c>
@@ -1437,7 +1445,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>281</v>
       </c>
@@ -1449,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>282</v>
       </c>
@@ -1467,7 +1475,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>283</v>
       </c>
@@ -1485,7 +1493,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>284</v>
       </c>
@@ -1506,18 +1514,18 @@
         <v>295</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E16" s="2">
         <f>SUM(E10:E15)</f>
         <v>9.2700000000000014</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>291</v>
       </c>
@@ -1525,7 +1533,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>292</v>
       </c>
@@ -1533,7 +1541,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>299</v>
       </c>
@@ -1541,7 +1549,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>301</v>
       </c>
@@ -1572,17 +1580,17 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="91.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="91.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1590,7 +1598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1607,7 +1615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1625,7 +1633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1643,7 +1651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1661,7 +1669,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1679,7 +1687,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1697,7 +1705,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1715,7 +1723,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1733,7 +1741,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1751,7 +1759,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1769,7 +1777,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1790,7 +1798,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1808,7 +1816,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1826,7 +1834,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1844,7 +1852,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1862,7 +1870,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1880,7 +1888,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1898,7 +1906,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1916,7 +1924,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1934,91 +1942,91 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D21">
         <f>SUM(D3:D20)</f>
         <v>26.120000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
@@ -2067,23 +2075,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523A62B0-E81A-45B5-A602-FD23740C6B06}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2100,7 +2108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -2118,7 +2126,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -2136,7 +2144,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -2154,7 +2162,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -2172,7 +2180,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -2190,7 +2198,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -2208,7 +2216,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -2226,7 +2234,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -2244,7 +2252,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -2262,7 +2270,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -2280,7 +2288,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -2298,7 +2306,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -2316,7 +2324,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -2334,7 +2342,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -2352,7 +2360,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -2370,7 +2378,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -2388,7 +2396,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -2406,7 +2414,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -2424,143 +2432,143 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D21">
         <f>SUM(D3:D20)</f>
         <v>25.01</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>113</v>
       </c>
@@ -2617,14 +2625,14 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>175</v>
       </c>
@@ -2632,7 +2640,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2649,7 +2657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>177</v>
       </c>
@@ -2667,7 +2675,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>178</v>
       </c>
@@ -2685,7 +2693,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>179</v>
       </c>
@@ -2703,7 +2711,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>180</v>
       </c>
@@ -2721,7 +2729,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>181</v>
       </c>
@@ -2739,7 +2747,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>182</v>
       </c>
@@ -2757,7 +2765,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>183</v>
       </c>
@@ -2775,7 +2783,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>184</v>
       </c>
@@ -2793,7 +2801,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>185</v>
       </c>
@@ -2811,7 +2819,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -2829,7 +2837,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>186</v>
       </c>
@@ -2847,7 +2855,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>187</v>
       </c>
@@ -2865,7 +2873,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>188</v>
       </c>
@@ -2883,7 +2891,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>189</v>
       </c>
@@ -2901,7 +2909,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>190</v>
       </c>
@@ -2919,7 +2927,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D20">
         <f>SUM(D5:D19)</f>
         <v>27.27</v>
@@ -2952,19 +2960,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3016F35F-8111-40FC-B276-8F561A9BCCA2}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="12" max="12" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -2972,7 +2980,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2989,7 +2997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>135</v>
       </c>
@@ -3007,8 +3015,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>136</v>
       </c>
       <c r="B5">
@@ -3025,7 +3033,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>137</v>
       </c>
@@ -3043,7 +3051,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>138</v>
       </c>
@@ -3061,7 +3069,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>139</v>
       </c>
@@ -3079,7 +3087,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>140</v>
       </c>
@@ -3097,7 +3105,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>141</v>
       </c>
@@ -3115,7 +3123,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>142</v>
       </c>
@@ -3133,7 +3141,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>143</v>
       </c>
@@ -3151,7 +3159,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -3166,7 +3174,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>144</v>
       </c>
@@ -3184,7 +3192,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>145</v>
       </c>
@@ -3202,7 +3210,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>146</v>
       </c>
@@ -3220,8 +3228,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>147</v>
       </c>
       <c r="B17">
@@ -3244,7 +3252,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>148</v>
       </c>
@@ -3262,7 +3270,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>149</v>
       </c>
@@ -3280,7 +3288,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>150</v>
       </c>
@@ -3298,7 +3306,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>151</v>
       </c>
@@ -3316,7 +3324,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>152</v>
       </c>
@@ -3334,18 +3342,18 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D23">
         <f>SUM(D4:D22)</f>
         <v>51.449999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>159</v>
       </c>
@@ -3353,7 +3361,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>160</v>
       </c>
@@ -3361,7 +3369,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>163</v>
       </c>
@@ -3369,27 +3377,27 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>267</v>
       </c>
@@ -3433,12 +3441,12 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>239</v>
       </c>
@@ -3446,7 +3454,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3463,7 +3471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>241</v>
       </c>
@@ -3481,7 +3489,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>242</v>
       </c>
@@ -3499,7 +3507,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>243</v>
       </c>
@@ -3517,7 +3525,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>244</v>
       </c>
@@ -3535,7 +3543,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -3553,7 +3561,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>246</v>
       </c>
@@ -3571,7 +3579,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>247</v>
       </c>
@@ -3589,7 +3597,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>248</v>
       </c>
@@ -3607,7 +3615,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -3622,7 +3630,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -3637,7 +3645,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -3655,7 +3663,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>249</v>
       </c>
@@ -3673,7 +3681,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>250</v>
       </c>
@@ -3691,7 +3699,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>251</v>
       </c>
@@ -3709,7 +3717,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D18">
         <f>SUM(D4:D17)</f>
         <v>37.70000000000001</v>
@@ -3743,13 +3751,13 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>204</v>
       </c>
@@ -3757,7 +3765,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3774,7 +3782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>206</v>
       </c>
@@ -3788,7 +3796,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>207</v>
       </c>
@@ -3802,7 +3810,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>208</v>
       </c>
@@ -3816,7 +3824,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>209</v>
       </c>
@@ -3830,7 +3838,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>210</v>
       </c>
@@ -3841,7 +3849,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>211</v>
       </c>
@@ -3855,7 +3863,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>212</v>
       </c>
@@ -3869,7 +3877,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>213</v>
       </c>
@@ -3883,7 +3891,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>214</v>
       </c>
@@ -3897,7 +3905,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>215</v>
       </c>
@@ -3908,7 +3916,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>216</v>
       </c>
@@ -3919,7 +3927,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>217</v>
       </c>
@@ -3933,7 +3941,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>218</v>
       </c>
@@ -3947,7 +3955,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>219</v>
       </c>
@@ -3961,7 +3969,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>220</v>
       </c>
@@ -3972,7 +3980,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>221</v>
       </c>
@@ -3986,7 +3994,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>222</v>
       </c>
@@ -4000,7 +4008,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>223</v>
       </c>
@@ -4014,7 +4022,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>224</v>
       </c>
@@ -4056,19 +4064,19 @@
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -4085,7 +4093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -4099,7 +4107,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -4110,7 +4118,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -4118,7 +4126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>120</v>
       </c>
@@ -4126,7 +4134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -4134,7 +4142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -4142,7 +4150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -4150,7 +4158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -4158,7 +4166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -4166,7 +4174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -4174,7 +4182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -4182,7 +4190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -4190,7 +4198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>127</v>
       </c>
@@ -4198,7 +4206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -4206,7 +4214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -4214,7 +4222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>129</v>
       </c>
@@ -4222,7 +4230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>130</v>
       </c>
